--- a/GRF Monitoring Website/GRF Monitoring Website/Uploads/lut_SITE_x_HOBO2013.xlsx
+++ b/GRF Monitoring Website/GRF Monitoring Website/Uploads/lut_SITE_x_HOBO2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>SITE_ID</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Portal</t>
+  </si>
+  <si>
+    <t>Air</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1164,23 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>300</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
         <v>34</v>
       </c>
     </row>

--- a/GRF Monitoring Website/GRF Monitoring Website/Uploads/lut_SITE_x_HOBO2013.xlsx
+++ b/GRF Monitoring Website/GRF Monitoring Website/Uploads/lut_SITE_x_HOBO2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
   <si>
     <t>SITE_ID</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">Air </t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Air</t>
   </si>
 </sst>
 </file>
@@ -462,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,57 +1125,6 @@
       </c>
       <c r="E39" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>2013</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>201</v>
-      </c>
-      <c r="C41">
-        <v>2013</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>300</v>
-      </c>
-      <c r="C42">
-        <v>2013</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
